--- a/PLScombined/PLScombined_predicted_factors_matrix_8.xlsx
+++ b/PLScombined/PLScombined_predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.9273032530848895</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.9446124800964582</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.966818556332854</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.9931842753968469</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1.022397544953988</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.054406348480394</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.08851303015611</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.124104312821446</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.16065106585102</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.197706459004406</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.234900248522477</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.272890542780313</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.310491825181552</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.346487116904296</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.381733494458314</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.417199856676554</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.450641275040826</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.483088317894475</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.514505034847776</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.544872423922144</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.575369302045485</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.604810431418576</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.633203074267565</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.660558489207086</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.686893089021076</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.712227524263878</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.736585579541775</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.759993235259506</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.782477922127093</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.804067938418237</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.826057276589178</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.847184453442147</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.867481179061576</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.886974890541304</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.905692018846866</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.923658601679895</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.940900283378844</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.957442204460897</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.974582605863388</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.991038597241092</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-2.006838451587468</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-2.022005588509817</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-2.036561711864467</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-0.5712793993483597</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.5922383326788629</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.5932595327257331</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.5801133522336914</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.5540041895079084</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.5217441615455742</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.4860479776144365</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.4489181794683222</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.4118110066726466</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.3757596623727352</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.3414441611701504</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3109421194000466</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.2825771042118466</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2552449396753632</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2305914338476531</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2095907696236737</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1899048087523884</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1726007607364938</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.1575103147666198</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.1444531981165222</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.1339136176451208</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1249068472878562</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1172863803092007</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1109136767760345</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1056566683396248</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1013907075449566</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.09799950541955231</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.09537567676995122</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.09342092597597976</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.09204596205427808</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.09161556425944595</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.0915798503035072</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.0918726281040578</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09244076871485116</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.09323849436976406</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.09422561909424979</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.09536679801860815</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.09663104111938682</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.09843839234429647</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1003053972412262</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1022028307053738</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1041116512863755</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1060176127057589</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.4499968366203743</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.3262358745529778</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2278803903039768</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1503842839806534</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.08838719217352752</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04142055864408609</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.006506075632118763</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01886224991655343</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.03674024709254187</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.04880054635641056</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.05650569036589161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.06129624935913058</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.06355606617726015</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.06326886200386532</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.06170487008484174</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.05992046339730305</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.05686785833789047</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.05352224199560916</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.05007197836364238</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.04664712675180335</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.04380072613889167</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.04103599451374842</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.03840279359934867</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.03594091114106088</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.03367553403169327</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.03161985055894539</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.02977799507772857</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.02814747839553106</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.02672109264354116</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.02548838802859099</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.02462963173496375</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.02391133777581967</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.02332045788886758</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.02284644148482112</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.02247953603312774</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.02221001049361684</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.02202815244886632</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.02192444413712279</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.02201831620127908</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.02216947134878643</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.02236814031733585</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.02260554236946468</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.02287493801861488</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.2558333153662727</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.1938999251286714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1406183022950233</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09613509967122039</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05901551631067511</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02993865937172284</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.007659561161560849</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.008964466573512148</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.02096669612930552</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.02925312300709873</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.03459952029737174</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03815740566212853</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.03994144981516631</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.0398181729737856</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.03875928741933054</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.03756788607188796</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.03534104657066221</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.03287451071623321</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.03029369277699278</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.02769593356493179</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.0255279488309696</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.02336755146355224</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.02126837915036375</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.0192659385235598</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.01738403261306454</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.01563739126095939</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.01403365678627266</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.01257504700837072</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.01125973397000469</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.01008296369251684</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.00919588733278226</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.008393366706153493</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.00767650158428114</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.007043997112135414</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.006492243060595594</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.006016280943306073</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.005610427290530602</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.005268673859756578</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.005089038635933449</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.004942093073701832</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.004827260652463192</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.004744226161605072</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.004691125201100762</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.05286259667694444</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.04673027023348889</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.03854109766611927</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.02997972471713969</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.02171713815400877</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01442308350303939</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.008246490547998184</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.003179459861902717</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0008747318997543762</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.004050498465423123</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.006490315522573885</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.008349104645100799</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.009720201963675158</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01066112089501048</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01132711802973808</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.01185223062707571</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01211138089197452</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.01226073471897314</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01232741346463563</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01233409348146886</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.01240227149266784</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0124127091636936</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01238507592578343</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01233328098738701</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0122672088340332</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01219373467095189</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01211753108300745</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01204168618801677</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01196816271498834</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01189813339884066</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01195352803826372</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01198359914953583</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01199488240308746</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01199347547365245</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01198379272911777</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.011968869887456</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01195075132767193</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01193079306706707</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01203261144631741</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01210648247974139</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01215760245610666</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01219179728355948</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01221354931117388</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.3481473978861825</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.2626159781284945</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.1977595374209303</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.1483359499335685</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.1086799424578639</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.07885870546301091</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.05644970530340725</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.03965804837056697</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.02713934131273409</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.0178784887061466</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.01110373021054746</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.006365006240004983</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.002951162187973458</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.0005228479271047528</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.001059494187942097</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.002024460329852918</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.002517072077667078</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.002665960758910049</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.002569043056113161</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.002303283703369944</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.001964674880955098</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.001561399065399721</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.001123743595322255</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0006728902461935763</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0002242760491604235</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.0002108843067119699</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.0006246484267636147</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.001011649817084598</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.00136854862618793</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.001693585224094299</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.001992035484746331</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.002249460716735116</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.002470387247342711</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.002658838094408609</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.002818277984963679</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.002951697036889004</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.003061730034054997</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.003150748826933243</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.003237189963126067</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.003292400710155463</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.003323593002679965</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.003335856483562567</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.003332989677505095</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>0.001567672948158251</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.009602244260661613</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0134518027238378</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01505474358537762</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01487788973102016</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0142687399378514</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01340524776395635</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01239806886691074</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0113221514495076</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01022868254123093</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.009152129441685086</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.008399447319699145</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.007520010056280019</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.006383881186117485</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.005429600394453157</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.004761967015817973</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.003919494643806233</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.003199815330813199</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.002566067834785463</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.001998682678832082</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.001554564931615712</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.001106982082404303</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.0006766108089586763</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0002727170725399563</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.0001018140873605836</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.000447253852367953</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.0007652850003898159</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.001058126307652033</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001328111587502325</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001577495805075204</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.001839402072832442</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.002073785757806195</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.002290132494980018</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.002491929315428287</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.002681047940881524</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.002858831698179596</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.003026385920552275</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.003184664416730885</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.003405564369238939</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.0035863947199415</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.00374572321452601</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.003891726703646873</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.004028424771143736</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -584,6 +1592,132 @@
       </c>
       <c r="E9" t="n">
         <v>0.02567377223999921</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01767692152067814</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01323521764991787</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01024648456737263</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.007741355149252811</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006276169592511977</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.005330108794613942</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.004738724234190597</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.004409628843701809</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.004273997163254202</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.00427712261375823</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.004504700101607039</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.004655480598724514</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.004673143772760898</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.004866649119804754</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.005251998699066453</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.005287152268006299</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.005454788320947502</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.005624401789799562</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.005772141750148757</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.006112864650435205</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.006236767469107994</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.006298423938178253</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.00633156395906876</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.006343880148759192</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.006337822417754631</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.006314981027509942</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.006276910041036376</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.006225215957640445</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.006161517301210721</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.00632031326317915</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.006278172358306989</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.006180057524042038</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.006064437747690709</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.005941941472457032</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.00581588975694832</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.005687668023251161</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.005558124138763236</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.005626795869664646</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.005536228660163124</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.00539912017929757</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.005249626164127838</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.005098280803613697</v>
       </c>
     </row>
   </sheetData>
